--- a/v1p1/input/pnai70x/PNAI70X_cpu_interrupt_2022_0414.xlsx
+++ b/v1p1/input/pnai70x/PNAI70X_cpu_interrupt_2022_0414.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EC9763-F14E-4B51-8E91-C2671FDBB6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369CD220-7352-4012-A05A-6021B5417D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4610" yWindow="1190" windowWidth="21260" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="history" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="262">
   <si>
     <t xml:space="preserve">version </t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -692,10 +692,6 @@
     <t>IRQ_GPIO3</t>
   </si>
   <si>
-    <t>o_rtc_tic_irq_0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>o_rtc_alarm_irq</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -974,6 +970,14 @@
   </si>
   <si>
     <t>IRQ_CTI_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_rtc_tic_irq0</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_rtc_tic_irq1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1977,12 +1981,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2371,25 +2375,25 @@
   <dimension ref="A1:I514"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="52" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="52" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="52" customWidth="1"/>
     <col min="3" max="3" width="36" style="47" customWidth="1"/>
     <col min="4" max="4" width="39" style="77" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.58203125" style="52" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.25" style="47" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="47" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="47" customWidth="1"/>
-    <col min="9" max="9" width="20.875" style="47" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="47" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="47" customWidth="1"/>
     <col min="10" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="53" customFormat="1" ht="33" hidden="1">
+    <row r="1" spans="1:9" s="53" customFormat="1" ht="34" hidden="1">
       <c r="A1" s="80" t="s">
         <v>46</v>
       </c>
@@ -2418,7 +2422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="33">
+    <row r="2" spans="1:9" ht="34">
       <c r="A2" s="46" t="s">
         <v>40</v>
       </c>
@@ -3888,7 +3892,7 @@
         <v>42</v>
       </c>
       <c r="C77" s="60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D77" s="31"/>
       <c r="E77" s="36" t="s">
@@ -3898,7 +3902,7 @@
         <v>67</v>
       </c>
       <c r="G77" s="60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H77" s="60"/>
       <c r="I77" s="60"/>
@@ -3911,7 +3915,7 @@
         <v>43</v>
       </c>
       <c r="C78" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D78" s="31"/>
       <c r="E78" s="36" t="s">
@@ -3921,7 +3925,7 @@
         <v>67</v>
       </c>
       <c r="G78" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H78" s="60"/>
       <c r="I78" s="60"/>
@@ -3934,7 +3938,7 @@
         <v>44</v>
       </c>
       <c r="C79" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D79" s="63"/>
       <c r="E79" s="36" t="s">
@@ -3944,7 +3948,7 @@
         <v>67</v>
       </c>
       <c r="G79" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H79" s="60"/>
       <c r="I79" s="60"/>
@@ -3957,7 +3961,7 @@
         <v>45</v>
       </c>
       <c r="C80" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D80" s="63"/>
       <c r="E80" s="36" t="s">
@@ -3967,7 +3971,7 @@
         <v>67</v>
       </c>
       <c r="G80" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H80" s="60"/>
       <c r="I80" s="60"/>
@@ -3980,7 +3984,7 @@
         <v>46</v>
       </c>
       <c r="C81" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D81" s="31"/>
       <c r="E81" s="36" t="s">
@@ -3990,7 +3994,7 @@
         <v>67</v>
       </c>
       <c r="G81" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H81" s="60"/>
       <c r="I81" s="60"/>
@@ -4003,7 +4007,7 @@
         <v>47</v>
       </c>
       <c r="C82" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D82" s="31"/>
       <c r="E82" s="36" t="s">
@@ -4013,7 +4017,7 @@
         <v>67</v>
       </c>
       <c r="G82" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H82" s="60"/>
       <c r="I82" s="60"/>
@@ -4026,7 +4030,7 @@
         <v>48</v>
       </c>
       <c r="C83" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D83" s="31"/>
       <c r="E83" s="36" t="s">
@@ -4036,7 +4040,7 @@
         <v>67</v>
       </c>
       <c r="G83" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H83" s="60"/>
       <c r="I83" s="60"/>
@@ -4049,7 +4053,7 @@
         <v>49</v>
       </c>
       <c r="C84" s="60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D84" s="31"/>
       <c r="E84" s="36" t="s">
@@ -4059,7 +4063,7 @@
         <v>67</v>
       </c>
       <c r="G84" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H84" s="60"/>
       <c r="I84" s="60"/>
@@ -4224,7 +4228,7 @@
         <v>58</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D93" s="31"/>
       <c r="E93" s="36" t="s">
@@ -4234,7 +4238,7 @@
         <v>67</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="H93" s="16"/>
       <c r="I93" s="16"/>
@@ -4247,7 +4251,7 @@
         <v>59</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D94" s="31"/>
       <c r="E94" s="36" t="s">
@@ -4257,7 +4261,7 @@
         <v>67</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>177</v>
+        <v>261</v>
       </c>
       <c r="H94" s="16"/>
       <c r="I94" s="16"/>
@@ -4270,7 +4274,7 @@
         <v>60</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D95" s="31"/>
       <c r="E95" s="36" t="s">
@@ -4280,7 +4284,7 @@
         <v>67</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
@@ -4338,17 +4342,17 @@
         <v>64</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D99" s="31"/>
       <c r="E99" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F99" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
@@ -4361,17 +4365,17 @@
         <v>65</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D100" s="31"/>
       <c r="E100" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F100" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H100" s="16"/>
       <c r="I100" s="16"/>
@@ -4384,17 +4388,17 @@
         <v>66</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D101" s="31"/>
       <c r="E101" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F101" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
@@ -4407,17 +4411,17 @@
         <v>67</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D102" s="31"/>
       <c r="E102" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F102" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H102" s="16"/>
       <c r="I102" s="16"/>
@@ -4430,17 +4434,17 @@
         <v>68</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D103" s="31"/>
       <c r="E103" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F103" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
@@ -4453,17 +4457,17 @@
         <v>69</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D104" s="31"/>
       <c r="E104" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F104" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H104" s="16"/>
       <c r="I104" s="16"/>
@@ -4476,17 +4480,17 @@
         <v>70</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D105" s="31"/>
       <c r="E105" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F105" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H105" s="16"/>
       <c r="I105" s="16"/>
@@ -4499,17 +4503,17 @@
         <v>71</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D106" s="31"/>
       <c r="E106" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F106" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H106" s="16"/>
       <c r="I106" s="16"/>
@@ -4522,17 +4526,17 @@
         <v>72</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D107" s="31"/>
       <c r="E107" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F107" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
@@ -4545,17 +4549,17 @@
         <v>73</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D108" s="31"/>
       <c r="E108" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F108" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H108" s="16"/>
       <c r="I108" s="16"/>
@@ -4568,17 +4572,17 @@
         <v>74</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D109" s="31"/>
       <c r="E109" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F109" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
@@ -4591,17 +4595,17 @@
         <v>75</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D110" s="31"/>
       <c r="E110" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F110" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H110" s="16"/>
       <c r="I110" s="16"/>
@@ -4614,17 +4618,17 @@
         <v>76</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D111" s="31"/>
       <c r="E111" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F111" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
@@ -4637,17 +4641,17 @@
         <v>77</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D112" s="31"/>
       <c r="E112" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F112" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H112" s="16"/>
       <c r="I112" s="16"/>
@@ -4660,17 +4664,17 @@
         <v>78</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D113" s="31"/>
       <c r="E113" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F113" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H113" s="16"/>
       <c r="I113" s="16"/>
@@ -4683,17 +4687,17 @@
         <v>79</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D114" s="31"/>
       <c r="E114" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F114" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H114" s="16"/>
       <c r="I114" s="16"/>
@@ -4706,17 +4710,17 @@
         <v>80</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D115" s="31"/>
       <c r="E115" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F115" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
@@ -4729,17 +4733,17 @@
         <v>81</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D116" s="31"/>
       <c r="E116" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F116" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H116" s="16"/>
       <c r="I116" s="16"/>
@@ -4752,17 +4756,17 @@
         <v>82</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D117" s="31"/>
       <c r="E117" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F117" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
@@ -4775,17 +4779,17 @@
         <v>83</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D118" s="31"/>
       <c r="E118" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F118" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H118" s="16"/>
       <c r="I118" s="16"/>
@@ -4798,17 +4802,17 @@
         <v>84</v>
       </c>
       <c r="C119" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D119" s="63"/>
       <c r="E119" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F119" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G119" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H119" s="60"/>
       <c r="I119" s="60"/>
@@ -4821,17 +4825,17 @@
         <v>85</v>
       </c>
       <c r="C120" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D120" s="63"/>
       <c r="E120" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F120" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G120" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H120" s="60"/>
       <c r="I120" s="60"/>
@@ -4844,17 +4848,17 @@
         <v>86</v>
       </c>
       <c r="C121" s="70" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D121" s="63"/>
       <c r="E121" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F121" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G121" s="60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H121" s="60"/>
       <c r="I121" s="60"/>
@@ -4867,17 +4871,17 @@
         <v>87</v>
       </c>
       <c r="C122" s="70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D122" s="63"/>
       <c r="E122" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F122" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G122" s="60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H122" s="60"/>
       <c r="I122" s="60"/>
@@ -4890,17 +4894,17 @@
         <v>88</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D123" s="63"/>
       <c r="E123" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F123" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="G123" s="60" t="s">
         <v>222</v>
-      </c>
-      <c r="G123" s="60" t="s">
-        <v>223</v>
       </c>
       <c r="H123" s="60"/>
       <c r="I123" s="60"/>
@@ -4913,17 +4917,17 @@
         <v>89</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D124" s="63"/>
       <c r="E124" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F124" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G124" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H124" s="60"/>
       <c r="I124" s="60"/>
@@ -4936,17 +4940,17 @@
         <v>90</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D125" s="63"/>
       <c r="E125" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F125" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G125" s="60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H125" s="60"/>
       <c r="I125" s="60"/>
@@ -4974,17 +4978,17 @@
         <v>92</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D127" s="63"/>
       <c r="E127" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F127" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G127" s="60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H127" s="60"/>
       <c r="I127" s="60"/>
@@ -4997,17 +5001,17 @@
         <v>93</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D128" s="63"/>
       <c r="E128" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F128" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G128" s="60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H128" s="60"/>
       <c r="I128" s="60"/>
@@ -5020,17 +5024,17 @@
         <v>94</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D129" s="63"/>
       <c r="E129" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F129" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G129" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H129" s="60"/>
       <c r="I129" s="60"/>
@@ -5043,17 +5047,17 @@
         <v>95</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D130" s="63"/>
       <c r="E130" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F130" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G130" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H130" s="60"/>
       <c r="I130" s="60"/>
@@ -10834,12 +10838,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="88" customWidth="1"/>
+    <col min="1" max="1" width="14.58203125" style="88" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="4" max="5" width="7.25" customWidth="1"/>
-    <col min="6" max="6" width="53.125" customWidth="1"/>
+    <col min="6" max="6" width="53.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/v1p1/input/pnai70x/PNAI70X_cpu_interrupt_2022_0414.xlsx
+++ b/v1p1/input/pnai70x/PNAI70X_cpu_interrupt_2022_0414.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369CD220-7352-4012-A05A-6021B5417D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF99581A-E6A6-41A1-AFAD-895D201E3AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4610" yWindow="1190" windowWidth="21260" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31080" yWindow="1800" windowWidth="24930" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="history" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="353">
   <si>
     <t xml:space="preserve">version </t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -616,369 +616,653 @@
     <t>o_uart0_intr</t>
   </si>
   <si>
+    <t>IRQ_UART0</t>
+  </si>
+  <si>
+    <t>o_i2c0_int</t>
+  </si>
+  <si>
+    <t>o_i2c1_int</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_i2c2_int</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_i2c3_int</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_I2C0</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_I2C1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_I2C2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_I2C3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_gpio0_intr</t>
+  </si>
+  <si>
+    <t>o_gpio1_intr</t>
+  </si>
+  <si>
+    <t>o_gpio2_intr</t>
+  </si>
+  <si>
+    <t>o_gpio3_intr</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO0</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO1</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO2</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO3</t>
+  </si>
+  <si>
+    <t>o_rtc_alarm_irq</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_RTC_TIC_0</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_RTC_TIC_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_RTC_ALARM</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_dma330_0_irq[0]</t>
+  </si>
+  <si>
+    <t>o_dma330_0_irq[1]</t>
+  </si>
+  <si>
+    <t>o_dma330_0_irq[2]</t>
+  </si>
+  <si>
+    <t>o_dma330_0_irq[3]</t>
+  </si>
+  <si>
+    <t>o_dma330_0_irq[4]</t>
+  </si>
+  <si>
+    <t>o_dma330_0_irq[5]</t>
+  </si>
+  <si>
+    <t>o_dma330_0_irq[6]</t>
+  </si>
+  <si>
+    <t>o_dma330_0_irq[7]</t>
+  </si>
+  <si>
+    <t>o_dma330_1_irq[0]</t>
+  </si>
+  <si>
+    <t>o_dma330_1_irq[1]</t>
+  </si>
+  <si>
+    <t>o_dma330_1_irq[2]</t>
+  </si>
+  <si>
+    <t>o_dma330_1_irq[3]</t>
+  </si>
+  <si>
+    <t>o_dma330_1_irq[4]</t>
+  </si>
+  <si>
+    <t>o_dma330_1_irq[5]</t>
+  </si>
+  <si>
+    <t>o_dma330_1_irq[6]</t>
+  </si>
+  <si>
+    <t>o_dma330_1_irq[7]</t>
+  </si>
+  <si>
+    <t>o_dma330_2_irq[0]</t>
+  </si>
+  <si>
+    <t>o_dma330_2_irq[1]</t>
+  </si>
+  <si>
+    <t>o_dma330_2_irq[2]</t>
+  </si>
+  <si>
+    <t>o_dma330_2_irq[3]</t>
+  </si>
+  <si>
+    <t>o_dma330_2_irq[4]</t>
+  </si>
+  <si>
+    <t>o_dma330_2_irq[5]</t>
+  </si>
+  <si>
+    <t>o_dma330_2_irq[6]</t>
+  </si>
+  <si>
+    <t>o_dma330_2_irq[7]</t>
+  </si>
+  <si>
+    <t>u_cpu_hpdf</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_dma330_0_irq_abort</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_dma330_1_irq_abort</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_dma330_2_irq_abort</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_DMA330_0_0</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_0_1</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_0_2</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_0_3</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_0_4</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_0_5</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_0_6</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_0_7</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_1_0</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_1_1</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_1_2</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_1_3</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_1_4</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_1_5</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_1_6</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_1_7</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_2_0</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_2_1</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_2_2</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_2_3</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_2_4</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_2_5</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_2_6</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_2_7</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_0_ABORT</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_1_ABORT</t>
+  </si>
+  <si>
+    <t>IRQ_DMA330_2_ABORT</t>
+  </si>
+  <si>
+    <t>o_ctiirq[0]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_ctiirq[1]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_ctiirq[2]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_ctiirq[3]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_CTI_0</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_CTI_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_CTI_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_CTI_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_rtc_tic_irq0</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_rtc_tic_irq1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_ssp0_intr</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_ssp0_txintr</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_ssp0_rxintr</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_ssp0_rorintr</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_ssp0_rtintr</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_ssp1_intr</t>
+  </si>
+  <si>
+    <t>o_ssp1_txintr</t>
+  </si>
+  <si>
+    <t>o_ssp1_rxintr</t>
+  </si>
+  <si>
+    <t>o_ssp1_rorintr</t>
+  </si>
+  <si>
+    <t>o_ssp1_rtintr</t>
+  </si>
+  <si>
+    <t>o_ssp2_intr</t>
+  </si>
+  <si>
+    <t>o_ssp2_txintr</t>
+  </si>
+  <si>
+    <t>o_ssp2_rxintr</t>
+  </si>
+  <si>
+    <t>o_ssp2_rorintr</t>
+  </si>
+  <si>
+    <t>o_ssp2_rtintr</t>
+  </si>
+  <si>
+    <t>o_ssp3_intr</t>
+  </si>
+  <si>
+    <t>o_ssp3_txintr</t>
+  </si>
+  <si>
+    <t>o_ssp3_rxintr</t>
+  </si>
+  <si>
+    <t>o_ssp3_rorintr</t>
+  </si>
+  <si>
+    <t>o_ssp3_rtintr</t>
+  </si>
+  <si>
+    <t>IRQ_SSP0</t>
+  </si>
+  <si>
+    <t>IRQ_SSP0_TX</t>
+  </si>
+  <si>
+    <t>IRQ_SSP0_RX</t>
+  </si>
+  <si>
+    <t>IRQ_SSP0_RX_OVERRUN</t>
+  </si>
+  <si>
+    <t>IRQ_SSP0_RX_TIMEOUT</t>
+  </si>
+  <si>
+    <t>IRQ_SSP1</t>
+  </si>
+  <si>
+    <t>IRQ_SSP1_TX</t>
+  </si>
+  <si>
+    <t>IRQ_SSP1_RX</t>
+  </si>
+  <si>
+    <t>IRQ_SSP1_RX_OVERRUN</t>
+  </si>
+  <si>
+    <t>IRQ_SSP1_RX_TIMEOUT</t>
+  </si>
+  <si>
+    <t>IRQ_SSP2</t>
+  </si>
+  <si>
+    <t>IRQ_SSP2_TX</t>
+  </si>
+  <si>
+    <t>IRQ_SSP2_RX</t>
+  </si>
+  <si>
+    <t>IRQ_SSP2_RX_OVERRUN</t>
+  </si>
+  <si>
+    <t>IRQ_SSP2_RX_TIMEOUT</t>
+  </si>
+  <si>
+    <t>SSP0 Interrupt</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSP0 TX FIFO service request</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSP0 RX FIFO service request</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSP0 RX overrun interrupt</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSP0 TX timeout interrupt</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_SSP3</t>
+  </si>
+  <si>
+    <t>IRQ_SSP3_TX</t>
+  </si>
+  <si>
+    <t>IRQ_SSP3_RX</t>
+  </si>
+  <si>
+    <t>IRQ_SSP3_RX_OVERRUN</t>
+  </si>
+  <si>
+    <t>IRQ_SSP3_RX_TIMEOUT</t>
+  </si>
+  <si>
+    <t>o_uart0_emptyintr</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>o_uart1_intr</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_uart2_emptyintr</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_uart3_intr</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_uart3_emptyintr</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>o_uart2_intr</t>
-  </si>
-  <si>
-    <t>o_uart3_intr</t>
-  </si>
-  <si>
-    <t>IRQ_UART0</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_uart1_emptyintr</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_UART0_EMPTY</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>IRQ_UART1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_UART1_EMPTY</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>IRQ_UART2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_UART2_EMPTY</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>IRQ_UART3</t>
-  </si>
-  <si>
-    <t>o_i2c0_int</t>
-  </si>
-  <si>
-    <t>o_i2c1_int</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_i2c2_int</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_i2c3_int</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_I2C0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_I2C1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_I2C2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_I2C3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_gpio0_intr</t>
-  </si>
-  <si>
-    <t>o_gpio1_intr</t>
-  </si>
-  <si>
-    <t>o_gpio2_intr</t>
-  </si>
-  <si>
-    <t>o_gpio3_intr</t>
-  </si>
-  <si>
-    <t>IRQ_GPIO0</t>
-  </si>
-  <si>
-    <t>IRQ_GPIO1</t>
-  </si>
-  <si>
-    <t>IRQ_GPIO2</t>
-  </si>
-  <si>
-    <t>IRQ_GPIO3</t>
-  </si>
-  <si>
-    <t>o_rtc_alarm_irq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_ssp0_tx_irq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_ssp0_rx_irq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_ssp1_tx_irq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_ssp1_rx_irq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_ssp2_tx_irq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_ssp2_rx_irq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_ssp3_tx_irq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_ssp3_rx_irq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_SSP0_TX</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_SSP0_RX</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_SSP1_TX</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_SSP1_RX</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_SSP2_TX</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_SSP2_RX</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_SSP3_TX</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_SSP3_RX</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_RTC_TIC_0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_RTC_TIC_1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_RTC_ALARM</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_dma330_0_irq[0]</t>
-  </si>
-  <si>
-    <t>o_dma330_0_irq[1]</t>
-  </si>
-  <si>
-    <t>o_dma330_0_irq[2]</t>
-  </si>
-  <si>
-    <t>o_dma330_0_irq[3]</t>
-  </si>
-  <si>
-    <t>o_dma330_0_irq[4]</t>
-  </si>
-  <si>
-    <t>o_dma330_0_irq[5]</t>
-  </si>
-  <si>
-    <t>o_dma330_0_irq[6]</t>
-  </si>
-  <si>
-    <t>o_dma330_0_irq[7]</t>
-  </si>
-  <si>
-    <t>o_dma330_1_irq[0]</t>
-  </si>
-  <si>
-    <t>o_dma330_1_irq[1]</t>
-  </si>
-  <si>
-    <t>o_dma330_1_irq[2]</t>
-  </si>
-  <si>
-    <t>o_dma330_1_irq[3]</t>
-  </si>
-  <si>
-    <t>o_dma330_1_irq[4]</t>
-  </si>
-  <si>
-    <t>o_dma330_1_irq[5]</t>
-  </si>
-  <si>
-    <t>o_dma330_1_irq[6]</t>
-  </si>
-  <si>
-    <t>o_dma330_1_irq[7]</t>
-  </si>
-  <si>
-    <t>o_dma330_2_irq[0]</t>
-  </si>
-  <si>
-    <t>o_dma330_2_irq[1]</t>
-  </si>
-  <si>
-    <t>o_dma330_2_irq[2]</t>
-  </si>
-  <si>
-    <t>o_dma330_2_irq[3]</t>
-  </si>
-  <si>
-    <t>o_dma330_2_irq[4]</t>
-  </si>
-  <si>
-    <t>o_dma330_2_irq[5]</t>
-  </si>
-  <si>
-    <t>o_dma330_2_irq[6]</t>
-  </si>
-  <si>
-    <t>o_dma330_2_irq[7]</t>
-  </si>
-  <si>
-    <t>u_cpu_hpdf</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_dma330_0_irq_abort</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_dma330_1_irq_abort</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_dma330_2_irq_abort</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_DMA330_0_0</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_0_1</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_0_2</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_0_3</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_0_4</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_0_5</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_0_6</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_0_7</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_1_0</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_1_1</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_1_2</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_1_3</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_1_4</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_1_5</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_1_6</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_1_7</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_2_0</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_2_1</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_2_2</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_2_3</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_2_4</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_2_5</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_2_6</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_2_7</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_0_ABORT</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_1_ABORT</t>
-  </si>
-  <si>
-    <t>IRQ_DMA330_2_ABORT</t>
-  </si>
-  <si>
-    <t>o_ctiirq[0]</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_ctiirq[1]</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_ctiirq[2]</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_ctiirq[3]</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_CTI_0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_CTI_1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_CTI_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ_CTI_3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_rtc_tic_irq0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_rtc_tic_irq1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ_UART3_EMPTY</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART0 interrupt</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART0 TX FIFO empty interrupt</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO0 combined or version GPIOMIS</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO1 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO2 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO3 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>o_gpio4_intr</t>
+  </si>
+  <si>
+    <t>o_gpio5_intr</t>
+  </si>
+  <si>
+    <t>o_gpio6_intr</t>
+  </si>
+  <si>
+    <t>o_gpio7_intr</t>
+  </si>
+  <si>
+    <t>o_gpio8_intr</t>
+  </si>
+  <si>
+    <t>o_gpio9_intr</t>
+  </si>
+  <si>
+    <t>o_gpio10_intr</t>
+  </si>
+  <si>
+    <t>o_gpio11_intr</t>
+  </si>
+  <si>
+    <t>o_gpio12_intr</t>
+  </si>
+  <si>
+    <t>o_gpio13_intr</t>
+  </si>
+  <si>
+    <t>o_gpio14_intr</t>
+  </si>
+  <si>
+    <t>o_gpio15_intr</t>
+  </si>
+  <si>
+    <t>o_gpio16_intr</t>
+  </si>
+  <si>
+    <t>o_gpio17_intr</t>
+  </si>
+  <si>
+    <t>o_gpio18_intr</t>
+  </si>
+  <si>
+    <t>o_gpio19_intr</t>
+  </si>
+  <si>
+    <t>GPIO4 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO5 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO6 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO7 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO8 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO9 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO10 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO11 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO12 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO13 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO14 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO15 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO16 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO17 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO18 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>GPIO19 combined or version GPIOMIS</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO4</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO5</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO6</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO7</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO8</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO9</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO10</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO11</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO12</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO13</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO14</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO15</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO16</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO17</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO18</t>
+  </si>
+  <si>
+    <t>IRQ_GPIO19</t>
   </si>
 </sst>
 </file>
@@ -1981,12 +2265,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2375,25 +2659,25 @@
   <dimension ref="A1:I514"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="52" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="52" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="52" customWidth="1"/>
     <col min="3" max="3" width="36" style="47" customWidth="1"/>
     <col min="4" max="4" width="39" style="77" customWidth="1"/>
-    <col min="5" max="5" width="9.58203125" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="52" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.25" style="47" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="47" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="47" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" style="47" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="47" customWidth="1"/>
+    <col min="9" max="9" width="20.875" style="47" customWidth="1"/>
     <col min="10" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="53" customFormat="1" ht="34" hidden="1">
+    <row r="1" spans="1:9" s="53" customFormat="1" ht="33" hidden="1">
       <c r="A1" s="80" t="s">
         <v>46</v>
       </c>
@@ -2422,7 +2706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34">
+    <row r="2" spans="1:9" ht="33">
       <c r="A2" s="46" t="s">
         <v>40</v>
       </c>
@@ -3648,9 +3932,11 @@
         <v>30</v>
       </c>
       <c r="C65" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="D65" s="63"/>
+        <v>154</v>
+      </c>
+      <c r="D65" s="63" t="s">
+        <v>299</v>
+      </c>
       <c r="E65" s="48" t="s">
         <v>38</v>
       </c>
@@ -3670,10 +3956,12 @@
       <c r="B66" s="36">
         <v>31</v>
       </c>
-      <c r="C66" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="D66" s="63"/>
+      <c r="C66" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="D66" s="63" t="s">
+        <v>300</v>
+      </c>
       <c r="E66" s="48" t="s">
         <v>38</v>
       </c>
@@ -3681,7 +3969,7 @@
         <v>67</v>
       </c>
       <c r="G66" s="60" t="s">
-        <v>154</v>
+        <v>285</v>
       </c>
       <c r="H66" s="60"/>
       <c r="I66" s="60"/>
@@ -3694,7 +3982,7 @@
         <v>32</v>
       </c>
       <c r="C67" s="60" t="s">
-        <v>159</v>
+        <v>293</v>
       </c>
       <c r="D67" s="31"/>
       <c r="E67" s="36" t="s">
@@ -3704,7 +3992,7 @@
         <v>67</v>
       </c>
       <c r="G67" s="60" t="s">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="H67" s="60"/>
       <c r="I67" s="60"/>
@@ -3717,7 +4005,7 @@
         <v>33</v>
       </c>
       <c r="C68" s="60" t="s">
-        <v>160</v>
+        <v>294</v>
       </c>
       <c r="D68" s="31"/>
       <c r="E68" s="36" t="s">
@@ -3727,7 +4015,7 @@
         <v>67</v>
       </c>
       <c r="G68" s="60" t="s">
-        <v>156</v>
+        <v>291</v>
       </c>
       <c r="H68" s="60"/>
       <c r="I68" s="60"/>
@@ -3739,11 +4027,19 @@
       <c r="B69" s="36">
         <v>34</v>
       </c>
-      <c r="C69" s="60"/>
+      <c r="C69" s="60" t="s">
+        <v>295</v>
+      </c>
       <c r="D69" s="31"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="60"/>
+      <c r="E69" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G69" s="60" t="s">
+        <v>290</v>
+      </c>
       <c r="H69" s="60"/>
       <c r="I69" s="60"/>
     </row>
@@ -3754,11 +4050,19 @@
       <c r="B70" s="36">
         <v>35</v>
       </c>
-      <c r="C70" s="60"/>
+      <c r="C70" s="60" t="s">
+        <v>296</v>
+      </c>
       <c r="D70" s="31"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="60"/>
+      <c r="E70" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" s="60" t="s">
+        <v>287</v>
+      </c>
       <c r="H70" s="60"/>
       <c r="I70" s="60"/>
     </row>
@@ -3770,7 +4074,7 @@
         <v>36</v>
       </c>
       <c r="C71" s="60" t="s">
-        <v>165</v>
+        <v>297</v>
       </c>
       <c r="D71" s="31"/>
       <c r="E71" s="36" t="s">
@@ -3780,7 +4084,7 @@
         <v>67</v>
       </c>
       <c r="G71" s="60" t="s">
-        <v>161</v>
+        <v>288</v>
       </c>
       <c r="H71" s="60"/>
       <c r="I71" s="60"/>
@@ -3793,7 +4097,7 @@
         <v>37</v>
       </c>
       <c r="C72" s="60" t="s">
-        <v>166</v>
+        <v>298</v>
       </c>
       <c r="D72" s="31"/>
       <c r="E72" s="36" t="s">
@@ -3803,7 +4107,7 @@
         <v>67</v>
       </c>
       <c r="G72" s="60" t="s">
-        <v>162</v>
+        <v>289</v>
       </c>
       <c r="H72" s="60"/>
       <c r="I72" s="60"/>
@@ -3815,19 +4119,11 @@
       <c r="B73" s="36">
         <v>38</v>
       </c>
-      <c r="C73" s="60" t="s">
-        <v>167</v>
-      </c>
+      <c r="C73" s="60"/>
       <c r="D73" s="31"/>
-      <c r="E73" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F73" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="G73" s="60" t="s">
-        <v>163</v>
-      </c>
+      <c r="E73" s="36"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="60"/>
       <c r="H73" s="60"/>
       <c r="I73" s="60"/>
     </row>
@@ -3838,19 +4134,11 @@
       <c r="B74" s="36">
         <v>39</v>
       </c>
-      <c r="C74" s="60" t="s">
-        <v>168</v>
-      </c>
+      <c r="C74" s="60"/>
       <c r="D74" s="31"/>
-      <c r="E74" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F74" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="G74" s="60" t="s">
-        <v>164</v>
-      </c>
+      <c r="E74" s="36"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="60"/>
       <c r="H74" s="60"/>
       <c r="I74" s="60"/>
     </row>
@@ -3861,11 +4149,19 @@
       <c r="B75" s="36">
         <v>40</v>
       </c>
-      <c r="C75" s="60"/>
+      <c r="C75" s="60" t="s">
+        <v>159</v>
+      </c>
       <c r="D75" s="31"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="60"/>
+      <c r="E75" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G75" s="60" t="s">
+        <v>155</v>
+      </c>
       <c r="H75" s="60"/>
       <c r="I75" s="60"/>
     </row>
@@ -3876,11 +4172,19 @@
       <c r="B76" s="36">
         <v>41</v>
       </c>
-      <c r="C76" s="60"/>
+      <c r="C76" s="60" t="s">
+        <v>160</v>
+      </c>
       <c r="D76" s="31"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="60"/>
+      <c r="E76" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G76" s="60" t="s">
+        <v>156</v>
+      </c>
       <c r="H76" s="60"/>
       <c r="I76" s="60"/>
     </row>
@@ -3892,7 +4196,7 @@
         <v>42</v>
       </c>
       <c r="C77" s="60" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="D77" s="31"/>
       <c r="E77" s="36" t="s">
@@ -3902,7 +4206,7 @@
         <v>67</v>
       </c>
       <c r="G77" s="60" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="H77" s="60"/>
       <c r="I77" s="60"/>
@@ -3915,7 +4219,7 @@
         <v>43</v>
       </c>
       <c r="C78" s="60" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="D78" s="31"/>
       <c r="E78" s="36" t="s">
@@ -3925,7 +4229,7 @@
         <v>67</v>
       </c>
       <c r="G78" s="60" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="H78" s="60"/>
       <c r="I78" s="60"/>
@@ -3937,19 +4241,11 @@
       <c r="B79" s="36">
         <v>44</v>
       </c>
-      <c r="C79" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="D79" s="63"/>
-      <c r="E79" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="G79" s="60" t="s">
-        <v>180</v>
-      </c>
+      <c r="C79" s="60"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="60"/>
       <c r="H79" s="60"/>
       <c r="I79" s="60"/>
     </row>
@@ -3960,19 +4256,11 @@
       <c r="B80" s="36">
         <v>45</v>
       </c>
-      <c r="C80" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="D80" s="63"/>
-      <c r="E80" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F80" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="G80" s="60" t="s">
-        <v>181</v>
-      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="60"/>
       <c r="H80" s="60"/>
       <c r="I80" s="60"/>
     </row>
@@ -3983,10 +4271,12 @@
       <c r="B81" s="36">
         <v>46</v>
       </c>
-      <c r="C81" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="D81" s="31"/>
+      <c r="C81" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>275</v>
+      </c>
       <c r="E81" s="36" t="s">
         <v>38</v>
       </c>
@@ -3994,7 +4284,7 @@
         <v>67</v>
       </c>
       <c r="G81" s="60" t="s">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="H81" s="60"/>
       <c r="I81" s="60"/>
@@ -4006,10 +4296,12 @@
       <c r="B82" s="36">
         <v>47</v>
       </c>
-      <c r="C82" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="D82" s="31"/>
+      <c r="C82" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>276</v>
+      </c>
       <c r="E82" s="36" t="s">
         <v>38</v>
       </c>
@@ -4017,7 +4309,7 @@
         <v>67</v>
       </c>
       <c r="G82" s="60" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="H82" s="60"/>
       <c r="I82" s="60"/>
@@ -4029,10 +4321,12 @@
       <c r="B83" s="36">
         <v>48</v>
       </c>
-      <c r="C83" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="D83" s="31"/>
+      <c r="C83" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>277</v>
+      </c>
       <c r="E83" s="36" t="s">
         <v>38</v>
       </c>
@@ -4040,7 +4334,7 @@
         <v>67</v>
       </c>
       <c r="G83" s="60" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="H83" s="60"/>
       <c r="I83" s="60"/>
@@ -4052,10 +4346,12 @@
       <c r="B84" s="36">
         <v>49</v>
       </c>
-      <c r="C84" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="D84" s="31"/>
+      <c r="C84" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D84" s="63" t="s">
+        <v>278</v>
+      </c>
       <c r="E84" s="36" t="s">
         <v>38</v>
       </c>
@@ -4063,7 +4359,7 @@
         <v>67</v>
       </c>
       <c r="G84" s="60" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="H84" s="60"/>
       <c r="I84" s="60"/>
@@ -4075,11 +4371,21 @@
       <c r="B85" s="36">
         <v>50</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="63"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="60"/>
+      <c r="C85" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="E85" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G85" s="60" t="s">
+        <v>244</v>
+      </c>
       <c r="H85" s="60"/>
       <c r="I85" s="60"/>
     </row>
@@ -4090,11 +4396,19 @@
       <c r="B86" s="36">
         <v>51</v>
       </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="60"/>
+      <c r="C86" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" s="31"/>
+      <c r="E86" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G86" s="60" t="s">
+        <v>245</v>
+      </c>
       <c r="H86" s="60"/>
       <c r="I86" s="60"/>
     </row>
@@ -4105,8 +4419,8 @@
       <c r="B87" s="36">
         <v>52</v>
       </c>
-      <c r="C87" s="60" t="s">
-        <v>173</v>
+      <c r="C87" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="D87" s="31"/>
       <c r="E87" s="36" t="s">
@@ -4116,7 +4430,7 @@
         <v>67</v>
       </c>
       <c r="G87" s="60" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="16"/>
@@ -4128,8 +4442,8 @@
       <c r="B88" s="36">
         <v>53</v>
       </c>
-      <c r="C88" s="60" t="s">
-        <v>174</v>
+      <c r="C88" s="16" t="s">
+        <v>267</v>
       </c>
       <c r="D88" s="31"/>
       <c r="E88" s="36" t="s">
@@ -4139,7 +4453,7 @@
         <v>67</v>
       </c>
       <c r="G88" s="60" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="H88" s="16"/>
       <c r="I88" s="16"/>
@@ -4151,8 +4465,8 @@
       <c r="B89" s="36">
         <v>54</v>
       </c>
-      <c r="C89" s="70" t="s">
-        <v>175</v>
+      <c r="C89" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="D89" s="63"/>
       <c r="E89" s="36" t="s">
@@ -4162,7 +4476,7 @@
         <v>67</v>
       </c>
       <c r="G89" s="60" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
@@ -4174,8 +4488,8 @@
       <c r="B90" s="36">
         <v>55</v>
       </c>
-      <c r="C90" s="70" t="s">
-        <v>176</v>
+      <c r="C90" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D90" s="63"/>
       <c r="E90" s="36" t="s">
@@ -4185,7 +4499,7 @@
         <v>67</v>
       </c>
       <c r="G90" s="60" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="H90" s="16"/>
       <c r="I90" s="16"/>
@@ -4197,11 +4511,19 @@
       <c r="B91" s="36">
         <v>56</v>
       </c>
-      <c r="C91" s="60"/>
+      <c r="C91" s="16" t="s">
+        <v>270</v>
+      </c>
       <c r="D91" s="31"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="62"/>
-      <c r="G91" s="60"/>
+      <c r="E91" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G91" s="60" t="s">
+        <v>250</v>
+      </c>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
     </row>
@@ -4212,11 +4534,19 @@
       <c r="B92" s="36">
         <v>57</v>
       </c>
-      <c r="C92" s="60"/>
+      <c r="C92" s="16" t="s">
+        <v>271</v>
+      </c>
       <c r="D92" s="31"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="60"/>
+      <c r="E92" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G92" s="60" t="s">
+        <v>251</v>
+      </c>
       <c r="H92" s="16"/>
       <c r="I92" s="16"/>
     </row>
@@ -4228,17 +4558,17 @@
         <v>58</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D93" s="31"/>
+        <v>272</v>
+      </c>
+      <c r="D93" s="63"/>
       <c r="E93" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F93" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="G93" s="16" t="s">
-        <v>260</v>
+      <c r="G93" s="60" t="s">
+        <v>252</v>
       </c>
       <c r="H93" s="16"/>
       <c r="I93" s="16"/>
@@ -4251,17 +4581,17 @@
         <v>59</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D94" s="31"/>
+        <v>273</v>
+      </c>
+      <c r="D94" s="63"/>
       <c r="E94" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F94" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="G94" s="16" t="s">
-        <v>261</v>
+      <c r="G94" s="60" t="s">
+        <v>253</v>
       </c>
       <c r="H94" s="16"/>
       <c r="I94" s="16"/>
@@ -4274,7 +4604,7 @@
         <v>60</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="D95" s="31"/>
       <c r="E95" s="36" t="s">
@@ -4283,8 +4613,8 @@
       <c r="F95" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="G95" s="16" t="s">
-        <v>177</v>
+      <c r="G95" s="60" t="s">
+        <v>254</v>
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
@@ -4296,11 +4626,19 @@
       <c r="B96" s="36">
         <v>61</v>
       </c>
-      <c r="C96" s="16"/>
+      <c r="C96" s="16" t="s">
+        <v>280</v>
+      </c>
       <c r="D96" s="31"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="16"/>
+      <c r="E96" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G96" s="60" t="s">
+        <v>255</v>
+      </c>
       <c r="H96" s="16"/>
       <c r="I96" s="16"/>
     </row>
@@ -4311,11 +4649,19 @@
       <c r="B97" s="36">
         <v>62</v>
       </c>
-      <c r="C97" s="16"/>
+      <c r="C97" s="16" t="s">
+        <v>281</v>
+      </c>
       <c r="D97" s="31"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="62"/>
-      <c r="G97" s="16"/>
+      <c r="E97" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>256</v>
+      </c>
       <c r="H97" s="16"/>
       <c r="I97" s="16"/>
     </row>
@@ -4326,11 +4672,19 @@
       <c r="B98" s="36">
         <v>63</v>
       </c>
-      <c r="C98" s="16"/>
+      <c r="C98" s="16" t="s">
+        <v>282</v>
+      </c>
       <c r="D98" s="31"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="16"/>
+      <c r="E98" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="H98" s="16"/>
       <c r="I98" s="16"/>
     </row>
@@ -4342,17 +4696,17 @@
         <v>64</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="D99" s="31"/>
       <c r="E99" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F99" s="62" t="s">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
@@ -4365,17 +4719,17 @@
         <v>65</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="D100" s="31"/>
       <c r="E100" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F100" s="62" t="s">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="H100" s="16"/>
       <c r="I100" s="16"/>
@@ -4387,19 +4741,11 @@
       <c r="B101" s="36">
         <v>66</v>
       </c>
-      <c r="C101" s="16" t="s">
-        <v>227</v>
-      </c>
+      <c r="C101" s="16"/>
       <c r="D101" s="31"/>
-      <c r="E101" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F101" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>199</v>
-      </c>
+      <c r="E101" s="36"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="16"/>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
     </row>
@@ -4410,19 +4756,11 @@
       <c r="B102" s="36">
         <v>67</v>
       </c>
-      <c r="C102" s="16" t="s">
-        <v>228</v>
-      </c>
+      <c r="C102" s="16"/>
       <c r="D102" s="31"/>
-      <c r="E102" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F102" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G102" s="16" t="s">
-        <v>200</v>
-      </c>
+      <c r="E102" s="36"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="16"/>
       <c r="H102" s="16"/>
       <c r="I102" s="16"/>
     </row>
@@ -4433,18 +4771,20 @@
       <c r="B103" s="36">
         <v>68</v>
       </c>
-      <c r="C103" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="D103" s="31"/>
+      <c r="C103" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>301</v>
+      </c>
       <c r="E103" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F103" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G103" s="16" t="s">
-        <v>201</v>
+        <v>67</v>
+      </c>
+      <c r="G103" s="60" t="s">
+        <v>163</v>
       </c>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
@@ -4456,18 +4796,20 @@
       <c r="B104" s="36">
         <v>69</v>
       </c>
-      <c r="C104" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D104" s="31"/>
+      <c r="C104" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>302</v>
+      </c>
       <c r="E104" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F104" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G104" s="16" t="s">
-        <v>202</v>
+        <v>67</v>
+      </c>
+      <c r="G104" s="60" t="s">
+        <v>164</v>
       </c>
       <c r="H104" s="16"/>
       <c r="I104" s="16"/>
@@ -4479,18 +4821,20 @@
       <c r="B105" s="36">
         <v>70</v>
       </c>
-      <c r="C105" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D105" s="31"/>
+      <c r="C105" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>303</v>
+      </c>
       <c r="E105" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F105" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G105" s="16" t="s">
-        <v>203</v>
+        <v>67</v>
+      </c>
+      <c r="G105" s="60" t="s">
+        <v>165</v>
       </c>
       <c r="H105" s="16"/>
       <c r="I105" s="16"/>
@@ -4502,18 +4846,20 @@
       <c r="B106" s="36">
         <v>71</v>
       </c>
-      <c r="C106" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D106" s="31"/>
+      <c r="C106" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>304</v>
+      </c>
       <c r="E106" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F106" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G106" s="16" t="s">
-        <v>204</v>
+        <v>67</v>
+      </c>
+      <c r="G106" s="60" t="s">
+        <v>166</v>
       </c>
       <c r="H106" s="16"/>
       <c r="I106" s="16"/>
@@ -4525,18 +4871,20 @@
       <c r="B107" s="36">
         <v>72</v>
       </c>
-      <c r="C107" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="D107" s="31"/>
+      <c r="C107" s="70" t="s">
+        <v>337</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>321</v>
+      </c>
       <c r="E107" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F107" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G107" s="16" t="s">
-        <v>205</v>
+        <v>67</v>
+      </c>
+      <c r="G107" s="60" t="s">
+        <v>305</v>
       </c>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
@@ -4548,18 +4896,20 @@
       <c r="B108" s="36">
         <v>73</v>
       </c>
-      <c r="C108" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="D108" s="31"/>
+      <c r="C108" s="70" t="s">
+        <v>338</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="E108" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F108" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G108" s="16" t="s">
-        <v>206</v>
+        <v>67</v>
+      </c>
+      <c r="G108" s="60" t="s">
+        <v>306</v>
       </c>
       <c r="H108" s="16"/>
       <c r="I108" s="16"/>
@@ -4571,18 +4921,20 @@
       <c r="B109" s="36">
         <v>74</v>
       </c>
-      <c r="C109" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="D109" s="31"/>
+      <c r="C109" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>323</v>
+      </c>
       <c r="E109" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F109" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G109" s="16" t="s">
-        <v>207</v>
+        <v>67</v>
+      </c>
+      <c r="G109" s="60" t="s">
+        <v>307</v>
       </c>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
@@ -4594,18 +4946,20 @@
       <c r="B110" s="36">
         <v>75</v>
       </c>
-      <c r="C110" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="D110" s="31"/>
+      <c r="C110" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>324</v>
+      </c>
       <c r="E110" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F110" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>208</v>
+        <v>67</v>
+      </c>
+      <c r="G110" s="60" t="s">
+        <v>308</v>
       </c>
       <c r="H110" s="16"/>
       <c r="I110" s="16"/>
@@ -4617,18 +4971,20 @@
       <c r="B111" s="36">
         <v>76</v>
       </c>
-      <c r="C111" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="D111" s="31"/>
+      <c r="C111" s="70" t="s">
+        <v>341</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>325</v>
+      </c>
       <c r="E111" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F111" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G111" s="16" t="s">
-        <v>209</v>
+        <v>67</v>
+      </c>
+      <c r="G111" s="60" t="s">
+        <v>309</v>
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
@@ -4640,18 +4996,20 @@
       <c r="B112" s="36">
         <v>77</v>
       </c>
-      <c r="C112" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D112" s="31"/>
+      <c r="C112" s="70" t="s">
+        <v>342</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>326</v>
+      </c>
       <c r="E112" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F112" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>210</v>
+        <v>67</v>
+      </c>
+      <c r="G112" s="60" t="s">
+        <v>310</v>
       </c>
       <c r="H112" s="16"/>
       <c r="I112" s="16"/>
@@ -4663,18 +5021,20 @@
       <c r="B113" s="36">
         <v>78</v>
       </c>
-      <c r="C113" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D113" s="31"/>
+      <c r="C113" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>327</v>
+      </c>
       <c r="E113" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F113" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G113" s="16" t="s">
-        <v>211</v>
+        <v>67</v>
+      </c>
+      <c r="G113" s="60" t="s">
+        <v>311</v>
       </c>
       <c r="H113" s="16"/>
       <c r="I113" s="16"/>
@@ -4686,18 +5046,20 @@
       <c r="B114" s="36">
         <v>79</v>
       </c>
-      <c r="C114" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D114" s="31"/>
+      <c r="C114" s="70" t="s">
+        <v>344</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>328</v>
+      </c>
       <c r="E114" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F114" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G114" s="16" t="s">
-        <v>212</v>
+        <v>67</v>
+      </c>
+      <c r="G114" s="60" t="s">
+        <v>312</v>
       </c>
       <c r="H114" s="16"/>
       <c r="I114" s="16"/>
@@ -4709,18 +5071,20 @@
       <c r="B115" s="36">
         <v>80</v>
       </c>
-      <c r="C115" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D115" s="31"/>
+      <c r="C115" s="70" t="s">
+        <v>345</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>329</v>
+      </c>
       <c r="E115" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F115" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G115" s="16" t="s">
-        <v>213</v>
+        <v>67</v>
+      </c>
+      <c r="G115" s="60" t="s">
+        <v>313</v>
       </c>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
@@ -4732,18 +5096,20 @@
       <c r="B116" s="36">
         <v>81</v>
       </c>
-      <c r="C116" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="D116" s="31"/>
+      <c r="C116" s="70" t="s">
+        <v>346</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>330</v>
+      </c>
       <c r="E116" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F116" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G116" s="16" t="s">
-        <v>214</v>
+        <v>67</v>
+      </c>
+      <c r="G116" s="60" t="s">
+        <v>314</v>
       </c>
       <c r="H116" s="16"/>
       <c r="I116" s="16"/>
@@ -4755,18 +5121,20 @@
       <c r="B117" s="36">
         <v>82</v>
       </c>
-      <c r="C117" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="D117" s="31"/>
+      <c r="C117" s="70" t="s">
+        <v>347</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>331</v>
+      </c>
       <c r="E117" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F117" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G117" s="16" t="s">
-        <v>215</v>
+        <v>67</v>
+      </c>
+      <c r="G117" s="60" t="s">
+        <v>315</v>
       </c>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
@@ -4778,18 +5146,20 @@
       <c r="B118" s="36">
         <v>83</v>
       </c>
-      <c r="C118" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D118" s="31"/>
+      <c r="C118" s="70" t="s">
+        <v>348</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>332</v>
+      </c>
       <c r="E118" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F118" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G118" s="16" t="s">
-        <v>216</v>
+        <v>67</v>
+      </c>
+      <c r="G118" s="60" t="s">
+        <v>316</v>
       </c>
       <c r="H118" s="16"/>
       <c r="I118" s="16"/>
@@ -4802,17 +5172,19 @@
         <v>84</v>
       </c>
       <c r="C119" s="70" t="s">
-        <v>245</v>
-      </c>
-      <c r="D119" s="63"/>
+        <v>349</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>333</v>
+      </c>
       <c r="E119" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F119" s="62" t="s">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="G119" s="60" t="s">
-        <v>217</v>
+        <v>317</v>
       </c>
       <c r="H119" s="60"/>
       <c r="I119" s="60"/>
@@ -4825,17 +5197,19 @@
         <v>85</v>
       </c>
       <c r="C120" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="D120" s="63"/>
+        <v>350</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>334</v>
+      </c>
       <c r="E120" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F120" s="62" t="s">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="G120" s="60" t="s">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="H120" s="60"/>
       <c r="I120" s="60"/>
@@ -4848,17 +5222,19 @@
         <v>86</v>
       </c>
       <c r="C121" s="70" t="s">
-        <v>247</v>
-      </c>
-      <c r="D121" s="63"/>
+        <v>351</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>335</v>
+      </c>
       <c r="E121" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F121" s="62" t="s">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="G121" s="60" t="s">
-        <v>219</v>
+        <v>319</v>
       </c>
       <c r="H121" s="60"/>
       <c r="I121" s="60"/>
@@ -4871,17 +5247,19 @@
         <v>87</v>
       </c>
       <c r="C122" s="70" t="s">
-        <v>248</v>
-      </c>
-      <c r="D122" s="63"/>
+        <v>352</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>336</v>
+      </c>
       <c r="E122" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F122" s="62" t="s">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="G122" s="60" t="s">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="H122" s="60"/>
       <c r="I122" s="60"/>
@@ -4893,19 +5271,11 @@
       <c r="B123" s="36">
         <v>88</v>
       </c>
-      <c r="C123" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="D123" s="63"/>
-      <c r="E123" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F123" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G123" s="60" t="s">
-        <v>222</v>
-      </c>
+      <c r="C123" s="16"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="62"/>
+      <c r="G123" s="16"/>
       <c r="H123" s="60"/>
       <c r="I123" s="60"/>
     </row>
@@ -4916,19 +5286,11 @@
       <c r="B124" s="36">
         <v>89</v>
       </c>
-      <c r="C124" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="D124" s="63"/>
-      <c r="E124" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F124" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G124" s="60" t="s">
-        <v>223</v>
-      </c>
+      <c r="C124" s="16"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="62"/>
+      <c r="G124" s="16"/>
       <c r="H124" s="60"/>
       <c r="I124" s="60"/>
     </row>
@@ -4940,17 +5302,17 @@
         <v>90</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="D125" s="63"/>
+        <v>172</v>
+      </c>
+      <c r="D125" s="31"/>
       <c r="E125" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F125" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G125" s="60" t="s">
-        <v>224</v>
+        <v>67</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>238</v>
       </c>
       <c r="H125" s="60"/>
       <c r="I125" s="60"/>
@@ -4962,11 +5324,19 @@
       <c r="B126" s="36">
         <v>91</v>
       </c>
-      <c r="C126" s="16"/>
-      <c r="D126" s="63"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="60"/>
+      <c r="C126" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D126" s="31"/>
+      <c r="E126" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F126" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G126" s="16" t="s">
+        <v>239</v>
+      </c>
       <c r="H126" s="60"/>
       <c r="I126" s="60"/>
     </row>
@@ -4978,17 +5348,17 @@
         <v>92</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="D127" s="63"/>
+        <v>174</v>
+      </c>
+      <c r="D127" s="31"/>
       <c r="E127" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F127" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G127" s="60" t="s">
-        <v>252</v>
+        <v>67</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="H127" s="60"/>
       <c r="I127" s="60"/>
@@ -5000,19 +5370,11 @@
       <c r="B128" s="36">
         <v>93</v>
       </c>
-      <c r="C128" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="D128" s="63"/>
-      <c r="E128" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F128" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G128" s="60" t="s">
-        <v>253</v>
-      </c>
+      <c r="C128" s="16"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="62"/>
+      <c r="G128" s="16"/>
       <c r="H128" s="60"/>
       <c r="I128" s="60"/>
     </row>
@@ -5024,17 +5386,17 @@
         <v>94</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D129" s="63"/>
+        <v>203</v>
+      </c>
+      <c r="D129" s="31"/>
       <c r="E129" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F129" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G129" s="60" t="s">
-        <v>254</v>
+        <v>199</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="H129" s="60"/>
       <c r="I129" s="60"/>
@@ -5047,17 +5409,17 @@
         <v>95</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="D130" s="63"/>
+        <v>204</v>
+      </c>
+      <c r="D130" s="31"/>
       <c r="E130" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F130" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G130" s="60" t="s">
-        <v>255</v>
+        <v>199</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="H130" s="60"/>
       <c r="I130" s="60"/>
@@ -5069,11 +5431,19 @@
       <c r="B131" s="36">
         <v>96</v>
       </c>
-      <c r="C131" s="60"/>
-      <c r="D131" s="65"/>
-      <c r="E131" s="48"/>
-      <c r="F131" s="62"/>
-      <c r="G131" s="65"/>
+      <c r="C131" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D131" s="31"/>
+      <c r="E131" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F131" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>177</v>
+      </c>
       <c r="H131" s="65"/>
       <c r="I131" s="65"/>
     </row>
@@ -5084,11 +5454,19 @@
       <c r="B132" s="36">
         <v>97</v>
       </c>
-      <c r="C132" s="60"/>
-      <c r="D132" s="65"/>
-      <c r="E132" s="48"/>
-      <c r="F132" s="62"/>
-      <c r="G132" s="65"/>
+      <c r="C132" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D132" s="31"/>
+      <c r="E132" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>178</v>
+      </c>
       <c r="H132" s="65"/>
       <c r="I132" s="65"/>
     </row>
@@ -5099,11 +5477,19 @@
       <c r="B133" s="36">
         <v>98</v>
       </c>
-      <c r="C133" s="60"/>
+      <c r="C133" s="16" t="s">
+        <v>207</v>
+      </c>
       <c r="D133" s="31"/>
-      <c r="E133" s="48"/>
-      <c r="F133" s="62"/>
-      <c r="G133" s="60"/>
+      <c r="E133" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F133" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="H133" s="60"/>
       <c r="I133" s="60"/>
     </row>
@@ -5114,11 +5500,19 @@
       <c r="B134" s="36">
         <v>99</v>
       </c>
-      <c r="C134" s="60"/>
+      <c r="C134" s="16" t="s">
+        <v>208</v>
+      </c>
       <c r="D134" s="31"/>
-      <c r="E134" s="48"/>
-      <c r="F134" s="62"/>
-      <c r="G134" s="60"/>
+      <c r="E134" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F134" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>180</v>
+      </c>
       <c r="H134" s="60"/>
       <c r="I134" s="60"/>
     </row>
@@ -5129,11 +5523,19 @@
       <c r="B135" s="36">
         <v>100</v>
       </c>
-      <c r="C135" s="60"/>
+      <c r="C135" s="16" t="s">
+        <v>209</v>
+      </c>
       <c r="D135" s="31"/>
-      <c r="E135" s="48"/>
-      <c r="F135" s="62"/>
-      <c r="G135" s="16"/>
+      <c r="E135" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="H135" s="16"/>
       <c r="I135" s="16"/>
     </row>
@@ -5144,11 +5546,19 @@
       <c r="B136" s="36">
         <v>101</v>
       </c>
-      <c r="C136" s="60"/>
+      <c r="C136" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="D136" s="31"/>
-      <c r="E136" s="48"/>
-      <c r="F136" s="62"/>
-      <c r="G136" s="16"/>
+      <c r="E136" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F136" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G136" s="16" t="s">
+        <v>182</v>
+      </c>
       <c r="H136" s="16"/>
       <c r="I136" s="16"/>
     </row>
@@ -5159,11 +5569,19 @@
       <c r="B137" s="36">
         <v>102</v>
       </c>
-      <c r="C137" s="60"/>
-      <c r="D137" s="65"/>
-      <c r="E137" s="48"/>
-      <c r="F137" s="62"/>
-      <c r="G137" s="65"/>
+      <c r="C137" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D137" s="31"/>
+      <c r="E137" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G137" s="16" t="s">
+        <v>183</v>
+      </c>
       <c r="H137" s="65"/>
       <c r="I137" s="65"/>
     </row>
@@ -5174,11 +5592,19 @@
       <c r="B138" s="36">
         <v>103</v>
       </c>
-      <c r="C138" s="60"/>
-      <c r="D138" s="65"/>
-      <c r="E138" s="48"/>
-      <c r="F138" s="62"/>
-      <c r="G138" s="65"/>
+      <c r="C138" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D138" s="31"/>
+      <c r="E138" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F138" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G138" s="16" t="s">
+        <v>184</v>
+      </c>
       <c r="H138" s="65"/>
       <c r="I138" s="65"/>
     </row>
@@ -5189,11 +5615,19 @@
       <c r="B139" s="36">
         <v>104</v>
       </c>
-      <c r="C139" s="60"/>
+      <c r="C139" s="16" t="s">
+        <v>213</v>
+      </c>
       <c r="D139" s="31"/>
-      <c r="E139" s="48"/>
-      <c r="F139" s="62"/>
-      <c r="G139" s="60"/>
+      <c r="E139" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G139" s="16" t="s">
+        <v>185</v>
+      </c>
       <c r="H139" s="60"/>
       <c r="I139" s="60"/>
     </row>
@@ -5204,11 +5638,19 @@
       <c r="B140" s="36">
         <v>105</v>
       </c>
-      <c r="C140" s="60"/>
+      <c r="C140" s="16" t="s">
+        <v>214</v>
+      </c>
       <c r="D140" s="31"/>
-      <c r="E140" s="48"/>
-      <c r="F140" s="62"/>
-      <c r="G140" s="60"/>
+      <c r="E140" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G140" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="H140" s="60"/>
       <c r="I140" s="60"/>
     </row>
@@ -5219,11 +5661,19 @@
       <c r="B141" s="36">
         <v>106</v>
       </c>
-      <c r="C141" s="60"/>
+      <c r="C141" s="16" t="s">
+        <v>215</v>
+      </c>
       <c r="D141" s="31"/>
-      <c r="E141" s="48"/>
-      <c r="F141" s="62"/>
-      <c r="G141" s="16"/>
+      <c r="E141" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F141" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>187</v>
+      </c>
       <c r="H141" s="16"/>
       <c r="I141" s="16"/>
     </row>
@@ -5234,11 +5684,19 @@
       <c r="B142" s="36">
         <v>107</v>
       </c>
-      <c r="C142" s="60"/>
+      <c r="C142" s="16" t="s">
+        <v>216</v>
+      </c>
       <c r="D142" s="31"/>
-      <c r="E142" s="48"/>
-      <c r="F142" s="62"/>
-      <c r="G142" s="16"/>
+      <c r="E142" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F142" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G142" s="16" t="s">
+        <v>188</v>
+      </c>
       <c r="H142" s="16"/>
       <c r="I142" s="16"/>
     </row>
@@ -5249,11 +5707,19 @@
       <c r="B143" s="36">
         <v>108</v>
       </c>
-      <c r="C143" s="60"/>
-      <c r="D143" s="65"/>
-      <c r="E143" s="48"/>
-      <c r="F143" s="62"/>
-      <c r="G143" s="65"/>
+      <c r="C143" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D143" s="31"/>
+      <c r="E143" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F143" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G143" s="16" t="s">
+        <v>189</v>
+      </c>
       <c r="H143" s="65"/>
       <c r="I143" s="65"/>
     </row>
@@ -5264,11 +5730,19 @@
       <c r="B144" s="36">
         <v>109</v>
       </c>
-      <c r="C144" s="60"/>
-      <c r="D144" s="65"/>
-      <c r="E144" s="48"/>
-      <c r="F144" s="62"/>
-      <c r="G144" s="65"/>
+      <c r="C144" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D144" s="31"/>
+      <c r="E144" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G144" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="H144" s="65"/>
       <c r="I144" s="65"/>
     </row>
@@ -5279,11 +5753,19 @@
       <c r="B145" s="36">
         <v>110</v>
       </c>
-      <c r="C145" s="60"/>
+      <c r="C145" s="16" t="s">
+        <v>219</v>
+      </c>
       <c r="D145" s="31"/>
-      <c r="E145" s="48"/>
-      <c r="F145" s="62"/>
-      <c r="G145" s="60"/>
+      <c r="E145" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F145" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G145" s="16" t="s">
+        <v>191</v>
+      </c>
       <c r="H145" s="60"/>
       <c r="I145" s="60"/>
     </row>
@@ -5294,11 +5776,19 @@
       <c r="B146" s="36">
         <v>111</v>
       </c>
-      <c r="C146" s="60"/>
+      <c r="C146" s="16" t="s">
+        <v>220</v>
+      </c>
       <c r="D146" s="31"/>
-      <c r="E146" s="48"/>
-      <c r="F146" s="62"/>
-      <c r="G146" s="60"/>
+      <c r="E146" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F146" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G146" s="16" t="s">
+        <v>192</v>
+      </c>
       <c r="H146" s="60"/>
       <c r="I146" s="60"/>
     </row>
@@ -5309,11 +5799,19 @@
       <c r="B147" s="36">
         <v>112</v>
       </c>
-      <c r="C147" s="60"/>
+      <c r="C147" s="16" t="s">
+        <v>221</v>
+      </c>
       <c r="D147" s="31"/>
-      <c r="E147" s="48"/>
-      <c r="F147" s="62"/>
-      <c r="G147" s="16"/>
+      <c r="E147" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G147" s="16" t="s">
+        <v>193</v>
+      </c>
       <c r="H147" s="16"/>
       <c r="I147" s="16"/>
     </row>
@@ -5324,11 +5822,19 @@
       <c r="B148" s="36">
         <v>113</v>
       </c>
-      <c r="C148" s="60"/>
+      <c r="C148" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="D148" s="31"/>
-      <c r="E148" s="48"/>
-      <c r="F148" s="62"/>
-      <c r="G148" s="16"/>
+      <c r="E148" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G148" s="16" t="s">
+        <v>194</v>
+      </c>
       <c r="H148" s="16"/>
       <c r="I148" s="16"/>
     </row>
@@ -5339,11 +5845,19 @@
       <c r="B149" s="36">
         <v>114</v>
       </c>
-      <c r="C149" s="60"/>
-      <c r="D149" s="65"/>
-      <c r="E149" s="48"/>
-      <c r="F149" s="62"/>
-      <c r="G149" s="65"/>
+      <c r="C149" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="D149" s="63"/>
+      <c r="E149" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G149" s="60" t="s">
+        <v>195</v>
+      </c>
       <c r="H149" s="65"/>
       <c r="I149" s="65"/>
     </row>
@@ -5354,11 +5868,19 @@
       <c r="B150" s="36">
         <v>115</v>
       </c>
-      <c r="C150" s="60"/>
-      <c r="D150" s="65"/>
-      <c r="E150" s="48"/>
-      <c r="F150" s="62"/>
-      <c r="G150" s="65"/>
+      <c r="C150" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="D150" s="63"/>
+      <c r="E150" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F150" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G150" s="60" t="s">
+        <v>196</v>
+      </c>
       <c r="H150" s="65"/>
       <c r="I150" s="65"/>
     </row>
@@ -5369,11 +5891,19 @@
       <c r="B151" s="36">
         <v>116</v>
       </c>
-      <c r="C151" s="60"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="48"/>
-      <c r="F151" s="62"/>
-      <c r="G151" s="60"/>
+      <c r="C151" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="D151" s="63"/>
+      <c r="E151" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F151" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G151" s="60" t="s">
+        <v>197</v>
+      </c>
       <c r="H151" s="60"/>
       <c r="I151" s="60"/>
     </row>
@@ -5384,11 +5914,19 @@
       <c r="B152" s="36">
         <v>117</v>
       </c>
-      <c r="C152" s="60"/>
-      <c r="D152" s="31"/>
-      <c r="E152" s="48"/>
-      <c r="F152" s="62"/>
-      <c r="G152" s="60"/>
+      <c r="C152" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="D152" s="63"/>
+      <c r="E152" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G152" s="60" t="s">
+        <v>198</v>
+      </c>
       <c r="H152" s="60"/>
       <c r="I152" s="60"/>
     </row>
@@ -5399,11 +5937,19 @@
       <c r="B153" s="36">
         <v>118</v>
       </c>
-      <c r="C153" s="16"/>
-      <c r="D153" s="31"/>
-      <c r="E153" s="36"/>
-      <c r="F153" s="62"/>
-      <c r="G153" s="16"/>
+      <c r="C153" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D153" s="63"/>
+      <c r="E153" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F153" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G153" s="60" t="s">
+        <v>200</v>
+      </c>
       <c r="H153" s="16"/>
       <c r="I153" s="16"/>
     </row>
@@ -5414,11 +5960,19 @@
       <c r="B154" s="36">
         <v>119</v>
       </c>
-      <c r="C154" s="16"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="36"/>
-      <c r="F154" s="62"/>
-      <c r="G154" s="16"/>
+      <c r="C154" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D154" s="63"/>
+      <c r="E154" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F154" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G154" s="60" t="s">
+        <v>201</v>
+      </c>
       <c r="H154" s="16"/>
       <c r="I154" s="16"/>
     </row>
@@ -5429,11 +5983,19 @@
       <c r="B155" s="36">
         <v>120</v>
       </c>
-      <c r="C155" s="60"/>
-      <c r="D155" s="31"/>
-      <c r="E155" s="48"/>
-      <c r="F155" s="62"/>
-      <c r="G155" s="60"/>
+      <c r="C155" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D155" s="63"/>
+      <c r="E155" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G155" s="60" t="s">
+        <v>202</v>
+      </c>
       <c r="H155" s="60"/>
       <c r="I155" s="60"/>
     </row>
@@ -5444,10 +6006,10 @@
       <c r="B156" s="36">
         <v>121</v>
       </c>
-      <c r="C156" s="60"/>
-      <c r="D156" s="31"/>
-      <c r="E156" s="48"/>
-      <c r="F156" s="62"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="63"/>
+      <c r="E156" s="36"/>
+      <c r="F156" s="36"/>
       <c r="G156" s="60"/>
       <c r="H156" s="60"/>
       <c r="I156" s="60"/>
@@ -5459,11 +6021,19 @@
       <c r="B157" s="36">
         <v>122</v>
       </c>
-      <c r="C157" s="16"/>
-      <c r="D157" s="31"/>
-      <c r="E157" s="36"/>
-      <c r="F157" s="62"/>
-      <c r="G157" s="16"/>
+      <c r="C157" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D157" s="63"/>
+      <c r="E157" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F157" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G157" s="60" t="s">
+        <v>230</v>
+      </c>
       <c r="H157" s="16"/>
       <c r="I157" s="16"/>
     </row>
@@ -5474,11 +6044,19 @@
       <c r="B158" s="36">
         <v>123</v>
       </c>
-      <c r="C158" s="16"/>
-      <c r="D158" s="31"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="62"/>
-      <c r="G158" s="16"/>
+      <c r="C158" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D158" s="63"/>
+      <c r="E158" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G158" s="60" t="s">
+        <v>231</v>
+      </c>
       <c r="H158" s="16"/>
       <c r="I158" s="16"/>
     </row>
@@ -5489,11 +6067,19 @@
       <c r="B159" s="36">
         <v>124</v>
       </c>
-      <c r="C159" s="16"/>
-      <c r="D159" s="31"/>
-      <c r="E159" s="36"/>
-      <c r="F159" s="62"/>
-      <c r="G159" s="60"/>
+      <c r="C159" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D159" s="63"/>
+      <c r="E159" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F159" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G159" s="60" t="s">
+        <v>232</v>
+      </c>
       <c r="H159" s="60"/>
       <c r="I159" s="60"/>
     </row>
@@ -5504,11 +6090,19 @@
       <c r="B160" s="36">
         <v>125</v>
       </c>
-      <c r="C160" s="16"/>
-      <c r="D160" s="31"/>
-      <c r="E160" s="36"/>
-      <c r="F160" s="62"/>
-      <c r="G160" s="60"/>
+      <c r="C160" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D160" s="63"/>
+      <c r="E160" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F160" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G160" s="60" t="s">
+        <v>233</v>
+      </c>
       <c r="H160" s="60"/>
       <c r="I160" s="60"/>
     </row>
@@ -5549,9 +6143,9 @@
       <c r="B163" s="36">
         <v>128</v>
       </c>
-      <c r="C163" s="60"/>
-      <c r="D163" s="31"/>
-      <c r="E163" s="48"/>
+      <c r="C163" s="70"/>
+      <c r="D163" s="63"/>
+      <c r="E163" s="36"/>
       <c r="F163" s="62"/>
       <c r="G163" s="60"/>
       <c r="H163" s="60"/>
@@ -5564,9 +6158,9 @@
       <c r="B164" s="36">
         <v>129</v>
       </c>
-      <c r="C164" s="60"/>
-      <c r="D164" s="31"/>
-      <c r="E164" s="48"/>
+      <c r="C164" s="70"/>
+      <c r="D164" s="63"/>
+      <c r="E164" s="36"/>
       <c r="F164" s="62"/>
       <c r="G164" s="60"/>
       <c r="H164" s="60"/>
@@ -5579,11 +6173,11 @@
       <c r="B165" s="36">
         <v>130</v>
       </c>
-      <c r="C165" s="60"/>
-      <c r="D165" s="31"/>
-      <c r="E165" s="48"/>
+      <c r="C165" s="70"/>
+      <c r="D165" s="63"/>
+      <c r="E165" s="36"/>
       <c r="F165" s="62"/>
-      <c r="G165" s="16"/>
+      <c r="G165" s="60"/>
       <c r="H165" s="16"/>
       <c r="I165" s="16"/>
     </row>
@@ -5594,11 +6188,11 @@
       <c r="B166" s="36">
         <v>131</v>
       </c>
-      <c r="C166" s="16"/>
-      <c r="D166" s="31"/>
+      <c r="C166" s="70"/>
+      <c r="D166" s="63"/>
       <c r="E166" s="36"/>
       <c r="F166" s="62"/>
-      <c r="G166" s="16"/>
+      <c r="G166" s="60"/>
       <c r="H166" s="16"/>
       <c r="I166" s="16"/>
     </row>
@@ -5609,9 +6203,9 @@
       <c r="B167" s="36">
         <v>132</v>
       </c>
-      <c r="C167" s="60"/>
-      <c r="D167" s="31"/>
-      <c r="E167" s="48"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="63"/>
+      <c r="E167" s="36"/>
       <c r="F167" s="62"/>
       <c r="G167" s="60"/>
       <c r="H167" s="60"/>
@@ -5624,9 +6218,9 @@
       <c r="B168" s="36">
         <v>133</v>
       </c>
-      <c r="C168" s="60"/>
-      <c r="D168" s="31"/>
-      <c r="E168" s="48"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="63"/>
+      <c r="E168" s="36"/>
       <c r="F168" s="62"/>
       <c r="G168" s="60"/>
       <c r="H168" s="60"/>
@@ -5640,10 +6234,10 @@
         <v>134</v>
       </c>
       <c r="C169" s="16"/>
-      <c r="D169" s="31"/>
+      <c r="D169" s="63"/>
       <c r="E169" s="36"/>
       <c r="F169" s="62"/>
-      <c r="G169" s="16"/>
+      <c r="G169" s="60"/>
       <c r="H169" s="16"/>
       <c r="I169" s="16"/>
     </row>
@@ -5654,10 +6248,10 @@
       <c r="B170" s="36">
         <v>135</v>
       </c>
-      <c r="C170" s="60"/>
-      <c r="D170" s="31"/>
-      <c r="E170" s="48"/>
-      <c r="F170" s="62"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="63"/>
+      <c r="E170" s="36"/>
+      <c r="F170" s="36"/>
       <c r="G170" s="60"/>
       <c r="H170" s="60"/>
       <c r="I170" s="60"/>
@@ -5669,9 +6263,9 @@
       <c r="B171" s="36">
         <v>136</v>
       </c>
-      <c r="C171" s="60"/>
-      <c r="D171" s="31"/>
-      <c r="E171" s="48"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="63"/>
+      <c r="E171" s="36"/>
       <c r="F171" s="62"/>
       <c r="G171" s="60"/>
       <c r="H171" s="60"/>
@@ -5684,11 +6278,11 @@
       <c r="B172" s="36">
         <v>137</v>
       </c>
-      <c r="C172" s="60"/>
-      <c r="D172" s="31"/>
-      <c r="E172" s="48"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="63"/>
+      <c r="E172" s="36"/>
       <c r="F172" s="62"/>
-      <c r="G172" s="16"/>
+      <c r="G172" s="60"/>
       <c r="H172" s="16"/>
       <c r="I172" s="16"/>
     </row>
@@ -5700,10 +6294,10 @@
         <v>138</v>
       </c>
       <c r="C173" s="16"/>
-      <c r="D173" s="31"/>
+      <c r="D173" s="63"/>
       <c r="E173" s="36"/>
       <c r="F173" s="62"/>
-      <c r="G173" s="16"/>
+      <c r="G173" s="60"/>
       <c r="H173" s="16"/>
       <c r="I173" s="16"/>
     </row>
@@ -5714,9 +6308,9 @@
       <c r="B174" s="36">
         <v>139</v>
       </c>
-      <c r="C174" s="60"/>
-      <c r="D174" s="31"/>
-      <c r="E174" s="48"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="63"/>
+      <c r="E174" s="36"/>
       <c r="F174" s="62"/>
       <c r="G174" s="60"/>
       <c r="H174" s="60"/>
@@ -10838,12 +11432,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.58203125" style="88" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="88" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="4" max="5" width="7.25" customWidth="1"/>
-    <col min="6" max="6" width="53.08203125" customWidth="1"/>
+    <col min="6" max="6" width="53.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
